--- a/ProcessedData/conf_rbf_SVM_audio_2.xlsx
+++ b/ProcessedData/conf_rbf_SVM_audio_2.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9218395978424963</v>
+        <v>0.05848502010714916</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6864894590601605</v>
+        <v>0.6402623430716301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4916985024116867</v>
+        <v>0.3012526368212207</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3501207022657451</v>
+        <v>0.3429460565366806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5351234079294986</v>
+        <v>0.6237412168375496</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79069565813382</v>
+        <v>0.03331272662576974</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.307991971379341</v>
+        <v>0.001859019567639067</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.730391071451157</v>
+        <v>0.5209601017782318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1437260933460249</v>
+        <v>0.4771808786541292</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9154789827389931</v>
+        <v>0.1045910764066822</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.02301141520030647</v>
+        <v>0.8260580189333375</v>
       </c>
       <c r="D5" t="n">
-        <v>1.425690307744567</v>
+        <v>0.06935090465998027</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04661892356572706</v>
+        <v>0.5818647581261243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8210227771086895</v>
+        <v>0.3959970156886957</v>
       </c>
       <c r="D6" t="n">
-        <v>1.737059276265277</v>
+        <v>0.02213822618518005</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.358761980107591</v>
+        <v>0.03070840340389409</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6486114921937141</v>
+        <v>0.6982610875663818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5749418262700983</v>
+        <v>0.2710305090297242</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8344983592550688</v>
+        <v>0.1103755781840993</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1796956584934488</v>
+        <v>0.7638796606570396</v>
       </c>
       <c r="D8" t="n">
-        <v>1.059038469012414</v>
+        <v>0.1257447611588612</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4999035012620152</v>
+        <v>0.2624157175422824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3711511411803574</v>
+        <v>0.6734389257736095</v>
       </c>
       <c r="D9" t="n">
-        <v>1.284135538821793</v>
+        <v>0.06414535668410797</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9643785986358222</v>
+        <v>0.08574333723577066</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.226629472986863</v>
+        <v>0.7787375949167412</v>
       </c>
       <c r="D10" t="n">
-        <v>1.000731093577251</v>
+        <v>0.1355190678474882</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.104312315588107</v>
+        <v>0.05331529366328494</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5161116407555166</v>
+        <v>0.7038138858355794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6392618788134923</v>
+        <v>0.242870820501136</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7210262304557813</v>
+        <v>0.1564081468808451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03252375608604474</v>
+        <v>0.7521084066686851</v>
       </c>
       <c r="D12" t="n">
-        <v>1.241197207315856</v>
+        <v>0.09148344645046974</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.575065152614759</v>
+        <v>0.01768946895532968</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5659050446462199</v>
+        <v>0.9370510440955639</v>
       </c>
       <c r="D13" t="n">
-        <v>1.637876139931599</v>
+        <v>0.04525948694910647</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.538466351093295</v>
+        <v>0.01043938347973748</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.245026965980321</v>
+        <v>0.4468583054878583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002402160878126613</v>
+        <v>0.542702311032404</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.351089432629312</v>
+        <v>0.02003337932057471</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.068510362319421</v>
+        <v>0.6965596179698161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5532472998494382</v>
+        <v>0.2834070027096092</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.7826160284540333</v>
+        <v>0.1089758888237492</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2966545857083869</v>
+        <v>0.7254263918380948</v>
       </c>
       <c r="D16" t="n">
-        <v>0.89254059625717</v>
+        <v>0.165597719338156</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.5206537348328948</v>
+        <v>0.2063865683214114</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05723599375756372</v>
+        <v>0.6971035337983331</v>
       </c>
       <c r="D17" t="n">
-        <v>1.386515038768188</v>
+        <v>0.09650989788025563</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02148666120485698</v>
+        <v>0.5450884516514128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5437024700522759</v>
+        <v>0.396275728692963</v>
       </c>
       <c r="D18" t="n">
-        <v>1.197559842754991</v>
+        <v>0.05863581965562405</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.507441265085479</v>
+        <v>0.01263890834145884</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.10883581591529</v>
+        <v>0.341532225521857</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2202669533060162</v>
+        <v>0.645828866136684</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.187099054650862</v>
+        <v>0.01993425126776427</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.087533909190205</v>
+        <v>0.359513432206847</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1732320823475322</v>
+        <v>0.6205523165253888</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.024845137873517</v>
+        <v>0.05287589343204755</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6296664533930478</v>
+        <v>0.5946807104628979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3668102299870595</v>
+        <v>0.3524433961050544</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3573671243739329</v>
+        <v>0.7580919010747558</v>
       </c>
       <c r="C22" t="n">
-        <v>2.021568173177153</v>
+        <v>0.2401642186314522</v>
       </c>
       <c r="D22" t="n">
-        <v>2.306016610319382</v>
+        <v>0.001743880293792197</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.279359300963695</v>
+        <v>0.0176721945123419</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.088777542946223</v>
+        <v>0.3723436602539101</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1475138970269472</v>
+        <v>0.6099841452337481</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6842448073105527</v>
+        <v>0.1447255039397147</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.2522873669782282</v>
+        <v>0.4233218286735231</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05020734558647866</v>
+        <v>0.4319526673867622</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.8066096745648008</v>
+        <v>0.07853392466065443</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5419327989718337</v>
+        <v>0.3094027098023968</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2554219013073651</v>
+        <v>0.6120633655369487</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.87531232624956</v>
+        <v>0.001694528884280836</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.741031817353706</v>
+        <v>0.09681866169239546</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.020259936147291</v>
+        <v>0.9014868094233237</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.975733820695627</v>
+        <v>0.002443392975090239</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.640398807608895</v>
+        <v>0.213380233896317</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.553623254270214</v>
+        <v>0.7841763731285925</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.237866711954571</v>
+        <v>0.01571308360679066</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.247025984226076</v>
+        <v>0.3776274709249681</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1370608160035476</v>
+        <v>0.6066594454682411</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.630809564015625</v>
+        <v>0.005653649725686617</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.452519775609153</v>
+        <v>0.2742916925598169</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3846818788053457</v>
+        <v>0.7200546577144968</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.540688159425163</v>
+        <v>0.005117571284099907</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.419995636632498</v>
+        <v>0.1314969104887477</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.8450706668792878</v>
+        <v>0.8633855182271525</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.290742019862269</v>
+        <v>0.01454488854730334</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.123124472071231</v>
+        <v>0.250458440011023</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4408082313617927</v>
+        <v>0.7349966714416737</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.099483731948045</v>
+        <v>0.0003900942518420865</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.238864059522745</v>
+        <v>0.05227755401320556</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.354440136369682</v>
+        <v>0.9473323517349523</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.323953595024254</v>
+        <v>0.008136195283900709</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.352219477654151</v>
+        <v>0.1725250184144473</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6821736568835848</v>
+        <v>0.8193387863016521</v>
       </c>
       <c r="E33" t="n">
         <v>11</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.248396666575364</v>
+        <v>0.01867714364550857</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.049062650241217</v>
+        <v>0.3187767404088591</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2673561508833233</v>
+        <v>0.6625461159456321</v>
       </c>
       <c r="E34" t="n">
         <v>11</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.074562279562816</v>
+        <v>0.03240676388003436</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.8802123198718785</v>
+        <v>0.3940047498207133</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.08757244666779962</v>
+        <v>0.5735884862992522</v>
       </c>
       <c r="E35" t="n">
         <v>11</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.703789582154176</v>
+        <v>0.01049028237315802</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.107994206466065</v>
+        <v>0.4452083213585241</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.001315914661838002</v>
+        <v>0.544301396268318</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.398286728103291</v>
+        <v>0.01220232524068405</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.161054179460157</v>
+        <v>0.2654218787388617</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4029961745208015</v>
+        <v>0.7223757960204544</v>
       </c>
       <c r="E37" t="n">
         <v>11</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.690497948590878</v>
+        <v>0.006491393870887215</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.329246043817212</v>
+        <v>0.2751493914242483</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3820586789385845</v>
+        <v>0.7183592147048644</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.824497583664059</v>
+        <v>0.003966496533035201</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.517429726244265</v>
+        <v>0.2755916674879237</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3826424871587408</v>
+        <v>0.7204418359790409</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.490147775702472</v>
+        <v>0.008005947058427443</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.358562979078689</v>
+        <v>0.2837772378275073</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3592014418966232</v>
+        <v>0.7082168151140651</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.808936989937866</v>
+        <v>0.006040618295955478</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.341130341539545</v>
+        <v>0.3978914658743253</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1031852069464139</v>
+        <v>0.5960679158297192</v>
       </c>
       <c r="E41" t="n">
         <v>11</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.333622202144558</v>
+        <v>0.01112850324375855</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.277873705375645</v>
+        <v>0.2788292558752934</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3690906780941179</v>
+        <v>0.7100422408809482</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.661923861001771</v>
+        <v>0.005976654979026015</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.407132363431236</v>
+        <v>0.2941951896080336</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3352494595822935</v>
+        <v>0.6998281554129404</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.771051310742639</v>
+        <v>0.004990903135133389</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.445316738417082</v>
+        <v>0.3123323029680958</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2927912887602775</v>
+        <v>0.6826767938967709</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.181134889027409</v>
+        <v>0.02030777408401586</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.025702222096305</v>
+        <v>0.27815910511596</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3646702898547363</v>
+        <v>0.7015331208000241</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.573893086019841</v>
+        <v>0.0008645012715137961</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.530005345621865</v>
+        <v>0.0445756814954691</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.437167575541402</v>
+        <v>0.9545598172330173</v>
       </c>
       <c r="E46" t="n">
         <v>11</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9275748888310784</v>
+        <v>0.03826862584574588</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.8332526454578808</v>
+        <v>0.2691637794960591</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3753564490663808</v>
+        <v>0.6925675946581947</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.95999054858223</v>
+        <v>4.65382813385261e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.909479153103893</v>
+        <v>0.05882530392247902</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.291914274398742</v>
+        <v>0.9411281577961821</v>
       </c>
       <c r="E48" t="n">
         <v>11</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.429742469412493</v>
+        <v>0.005579329527837381</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.424682428745561</v>
+        <v>0.08222073847399973</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.106281461585589</v>
+        <v>0.9121999319981628</v>
       </c>
       <c r="E49" t="n">
         <v>11</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.722096754713458</v>
+        <v>0.876442099489509</v>
       </c>
       <c r="C50" t="n">
-        <v>1.218968332375164</v>
+        <v>0.1136989102801878</v>
       </c>
       <c r="D50" t="n">
-        <v>1.381393154220127</v>
+        <v>0.009858990230302922</v>
       </c>
       <c r="E50" t="n">
         <v>12</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4247408197194278</v>
+        <v>0.7852821980543303</v>
       </c>
       <c r="C51" t="n">
-        <v>1.485250517301688</v>
+        <v>0.2109293575280527</v>
       </c>
       <c r="D51" t="n">
-        <v>2.112942448229965</v>
+        <v>0.003788444417616918</v>
       </c>
       <c r="E51" t="n">
         <v>12</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.579030458855446</v>
+        <v>0.102127910975844</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.5818417987309541</v>
+        <v>0.490268115989331</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2259234119982449</v>
+        <v>0.4076039730348252</v>
       </c>
       <c r="E52" t="n">
         <v>12</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.3290743427717371</v>
+        <v>0.3355817440938522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3250504912747463</v>
+        <v>0.5080437215869591</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5198860751805865</v>
+        <v>0.1563745343191888</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5028994383814802</v>
+        <v>0.1915970007282147</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1567308935528953</v>
+        <v>0.5258517888268629</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4261000313276566</v>
+        <v>0.2825512104449223</v>
       </c>
       <c r="E54" t="n">
         <v>12</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4156798865968443</v>
+        <v>0.754015040133901</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7504731962242008</v>
+        <v>0.208893080888346</v>
       </c>
       <c r="D55" t="n">
-        <v>1.181309765839721</v>
+        <v>0.03709187897775287</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7839033932303141</v>
+        <v>0.8870060643347689</v>
       </c>
       <c r="C56" t="n">
-        <v>1.115609661884088</v>
+        <v>0.0990530674005098</v>
       </c>
       <c r="D56" t="n">
-        <v>1.166491087182756</v>
+        <v>0.01394086826472141</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.3980392145252734</v>
+        <v>0.2795375142972988</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1152227862301718</v>
+        <v>0.4957291935182614</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4062990003126783</v>
+        <v>0.2247332921844395</v>
       </c>
       <c r="E57" t="n">
         <v>12</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2100223746872802</v>
+        <v>0.6807892573074514</v>
       </c>
       <c r="C58" t="n">
-        <v>1.207355288246868</v>
+        <v>0.3095695439505459</v>
       </c>
       <c r="D58" t="n">
-        <v>1.793013545442242</v>
+        <v>0.009641198742002569</v>
       </c>
       <c r="E58" t="n">
         <v>12</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.07208689057858519</v>
+        <v>0.5923774596763028</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7911299629639021</v>
+        <v>0.3782134579968994</v>
       </c>
       <c r="D59" t="n">
-        <v>1.44922396559523</v>
+        <v>0.02940908232679778</v>
       </c>
       <c r="E59" t="n">
         <v>12</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.006459759265279</v>
+        <v>0.9274446839066487</v>
       </c>
       <c r="C60" t="n">
-        <v>1.161954941272962</v>
+        <v>0.0602280501360896</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9906062138881209</v>
+        <v>0.0123272659572619</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7255612441014807</v>
+        <v>0.854445875621427</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8376847425326108</v>
+        <v>0.1114789353105304</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8441953949495156</v>
+        <v>0.03407518906804264</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3411160361633097</v>
+        <v>0.736142009055103</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9575035204349778</v>
+        <v>0.2427140637952675</v>
       </c>
       <c r="D62" t="n">
-        <v>1.36903846793934</v>
+        <v>0.02114392714962963</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6567133125382969</v>
+        <v>0.8581282501451176</v>
       </c>
       <c r="C63" t="n">
-        <v>1.151113317829166</v>
+        <v>0.1307505179356</v>
       </c>
       <c r="D63" t="n">
-        <v>1.464581866116653</v>
+        <v>0.01112123191928216</v>
       </c>
       <c r="E63" t="n">
         <v>12</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6857334040246417</v>
+        <v>0.8690130270287105</v>
       </c>
       <c r="C64" t="n">
-        <v>1.242045668670054</v>
+        <v>0.1232922438397776</v>
       </c>
       <c r="D64" t="n">
-        <v>1.668331788334832</v>
+        <v>0.007694729131511797</v>
       </c>
       <c r="E64" t="n">
         <v>12</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4426210861245994</v>
+        <v>0.7932786731362089</v>
       </c>
       <c r="C65" t="n">
-        <v>1.421155883623209</v>
+        <v>0.2039518822507921</v>
       </c>
       <c r="D65" t="n">
-        <v>2.894121637143833</v>
+        <v>0.002769444612998966</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6362082228623041</v>
+        <v>0.8232318468943357</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7670313403831361</v>
+        <v>0.1336362926223524</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7942075488517373</v>
+        <v>0.0431318604833122</v>
       </c>
       <c r="E66" t="n">
         <v>12</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2290214491616536</v>
+        <v>0.3798043402888209</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3141294053407737</v>
+        <v>0.5071032352215683</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8577804548593873</v>
+        <v>0.1130924244896108</v>
       </c>
       <c r="E67" t="n">
         <v>12</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.882979700985199</v>
+        <v>0.9080074023071358</v>
       </c>
       <c r="C68" t="n">
-        <v>1.156056425066135</v>
+        <v>0.07959891685289212</v>
       </c>
       <c r="D68" t="n">
-        <v>1.116491174648423</v>
+        <v>0.01239368083997202</v>
       </c>
       <c r="E68" t="n">
         <v>12</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5247238324874206</v>
+        <v>0.8001674258126047</v>
       </c>
       <c r="C69" t="n">
-        <v>0.82141368911625</v>
+        <v>0.1696909800885217</v>
       </c>
       <c r="D69" t="n">
-        <v>1.203936662306752</v>
+        <v>0.03014159409887366</v>
       </c>
       <c r="E69" t="n">
         <v>12</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7181295423198395</v>
+        <v>0.8803356168470343</v>
       </c>
       <c r="C70" t="n">
-        <v>1.411453809452675</v>
+        <v>0.1153105530676083</v>
       </c>
       <c r="D70" t="n">
-        <v>1.900216681718113</v>
+        <v>0.004353830085357313</v>
       </c>
       <c r="E70" t="n">
         <v>12</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7164227915536361</v>
+        <v>0.872685718094085</v>
       </c>
       <c r="C71" t="n">
-        <v>1.073542843809912</v>
+        <v>0.1151568938803471</v>
       </c>
       <c r="D71" t="n">
-        <v>1.58461987167815</v>
+        <v>0.01215738802556805</v>
       </c>
       <c r="E71" t="n">
         <v>12</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2221947463058558</v>
+        <v>0.5104229108524113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1214682478952742</v>
+        <v>0.285461492207604</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5811362183417612</v>
+        <v>0.2041155969399844</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7450838158673281</v>
+        <v>0.866144001149286</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8512956020192721</v>
+        <v>0.1080420050873301</v>
       </c>
       <c r="D73" t="n">
-        <v>1.256500350491315</v>
+        <v>0.02581399376338396</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.4200134842611942</v>
+        <v>0.2777634795390379</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1880575337474344</v>
+        <v>0.5998931447768795</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9210371330357601</v>
+        <v>0.1223433756840827</v>
       </c>
       <c r="E74" t="n">
         <v>12</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6601368274682744</v>
+        <v>0.8676214424979383</v>
       </c>
       <c r="C75" t="n">
-        <v>1.724156422307695</v>
+        <v>0.1309466671884189</v>
       </c>
       <c r="D75" t="n">
-        <v>2.509282098930534</v>
+        <v>0.001431890313642765</v>
       </c>
       <c r="E75" t="n">
         <v>12</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2242743100777136</v>
+        <v>0.6731947515602458</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7874256587815669</v>
+        <v>0.2964016486291883</v>
       </c>
       <c r="D76" t="n">
-        <v>1.396057310498115</v>
+        <v>0.03040359981056564</v>
       </c>
       <c r="E76" t="n">
         <v>12</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5635418876838787</v>
+        <v>0.7636078744307302</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5359514322668364</v>
+        <v>0.1560535926957289</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7091871367249707</v>
+        <v>0.08033853287354081</v>
       </c>
       <c r="E77" t="n">
         <v>12</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5673017871009125</v>
+        <v>0.7872748217853039</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6339757634016596</v>
+        <v>0.1546678995198881</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8568590716607429</v>
+        <v>0.05805727869480785</v>
       </c>
       <c r="E78" t="n">
         <v>12</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7553800761138132</v>
+        <v>0.1356033272008745</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.18867092320456</v>
+        <v>0.5879468859589426</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4620194760980423</v>
+        <v>0.2764497868401829</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1595865537363141</v>
+        <v>0.6235330279557525</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6331498578742956</v>
+        <v>0.3208365796757424</v>
       </c>
       <c r="D80" t="n">
-        <v>1.034271985692562</v>
+        <v>0.05563039236850497</v>
       </c>
       <c r="E80" t="n">
         <v>12</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.606894371385085</v>
+        <v>0.007685199607770679</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.357308949265834</v>
+        <v>0.3813903414764633</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1366617287346445</v>
+        <v>0.6109244589157657</v>
       </c>
       <c r="E81" t="n">
         <v>12</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.484380780358212</v>
+        <v>0.02030496138837486</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.8012755856106875</v>
+        <v>0.7744851935677965</v>
       </c>
       <c r="D82" t="n">
-        <v>0.768208862230132</v>
+        <v>0.2052098450438286</v>
       </c>
       <c r="E82" t="n">
         <v>12</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.425991036880855</v>
+        <v>0.708894034214275</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5283374232625224</v>
+        <v>0.1860377644129504</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3411690717819835</v>
+        <v>0.1050682013727746</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7070199623458353</v>
+        <v>0.8646548886631031</v>
       </c>
       <c r="C84" t="n">
-        <v>1.112905643431811</v>
+        <v>0.1146968440997428</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8007595285580675</v>
+        <v>0.02064826723715407</v>
       </c>
       <c r="E84" t="n">
         <v>12</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.585488287599087</v>
+        <v>0.8423805709739682</v>
       </c>
       <c r="C85" t="n">
-        <v>1.414720851397016</v>
+        <v>0.1526316208600933</v>
       </c>
       <c r="D85" t="n">
-        <v>1.836435772365938</v>
+        <v>0.004987808165938392</v>
       </c>
       <c r="E85" t="n">
         <v>12</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8165701885095547</v>
+        <v>0.8906142483899704</v>
       </c>
       <c r="C86" t="n">
-        <v>1.052282713035263</v>
+        <v>0.09198938335437538</v>
       </c>
       <c r="D86" t="n">
-        <v>1.02944553285868</v>
+        <v>0.01739636825565428</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5482967051169072</v>
+        <v>0.8134363244344702</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9448825605203357</v>
+        <v>0.1613865934613384</v>
       </c>
       <c r="D87" t="n">
-        <v>1.061018020602979</v>
+        <v>0.02517708210419142</v>
       </c>
       <c r="E87" t="n">
         <v>12</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.362987626839636</v>
+        <v>0.9728143441134858</v>
       </c>
       <c r="C88" t="n">
-        <v>2.302232624218101</v>
+        <v>0.02694962752989459</v>
       </c>
       <c r="D88" t="n">
-        <v>2.530984030368437</v>
+        <v>0.000236028356619626</v>
       </c>
       <c r="E88" t="n">
         <v>12</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9330665388507771</v>
+        <v>0.927066376361647</v>
       </c>
       <c r="C89" t="n">
-        <v>1.835470463515046</v>
+        <v>0.07172689524265596</v>
       </c>
       <c r="D89" t="n">
-        <v>2.184485135742001</v>
+        <v>0.001206728395696667</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3614083119727058</v>
+        <v>0.7193562480552839</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7298960327498722</v>
+        <v>0.2178059289685803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5781654671530914</v>
+        <v>0.06283782297613574</v>
       </c>
       <c r="E90" t="n">
         <v>12</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.2066620828879491</v>
+        <v>0.4139905273697841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5193321775894422</v>
+        <v>0.5053400582214137</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9032102768696502</v>
+        <v>0.08066941440880215</v>
       </c>
       <c r="E91" t="n">
         <v>12</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7561640572448129</v>
+        <v>0.8900473524960021</v>
       </c>
       <c r="C92" t="n">
-        <v>1.448257534232221</v>
+        <v>0.1062162759728115</v>
       </c>
       <c r="D92" t="n">
-        <v>1.966404405304907</v>
+        <v>0.003736371531186617</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2687802119352614</v>
+        <v>0.7039102516166663</v>
       </c>
       <c r="C93" t="n">
-        <v>1.002804259895337</v>
+        <v>0.2768970168044674</v>
       </c>
       <c r="D93" t="n">
-        <v>1.421309216832377</v>
+        <v>0.01919273157886633</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3969273626334728</v>
+        <v>0.7700908979053702</v>
       </c>
       <c r="C94" t="n">
-        <v>1.290923186095748</v>
+        <v>0.2213525024353883</v>
       </c>
       <c r="D94" t="n">
-        <v>1.660612807484476</v>
+        <v>0.008556599659241373</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4670981732538553</v>
+        <v>0.7923643097101911</v>
       </c>
       <c r="C95" t="n">
-        <v>1.082728487210867</v>
+        <v>0.191715455935262</v>
       </c>
       <c r="D95" t="n">
-        <v>1.342228967107708</v>
+        <v>0.01592023435454675</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7209456677422668</v>
+        <v>0.8773427395971224</v>
       </c>
       <c r="C96" t="n">
-        <v>1.308667467892557</v>
+        <v>0.113969255727878</v>
       </c>
       <c r="D96" t="n">
-        <v>1.337800699686546</v>
+        <v>0.008688004674999621</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.25910294243457</v>
+        <v>0.05199996441224777</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02953824646831471</v>
+        <v>0.9167075714055782</v>
       </c>
       <c r="D97" t="n">
-        <v>1.858937217315493</v>
+        <v>0.03129246418217444</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6499835482225467</v>
+        <v>0.8543285765854206</v>
       </c>
       <c r="C98" t="n">
-        <v>1.196889390355873</v>
+        <v>0.1316523345637775</v>
       </c>
       <c r="D98" t="n">
-        <v>1.116786223032868</v>
+        <v>0.01401908885080173</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.187015937213904</v>
+        <v>0.4370517525239784</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7332929894994979</v>
+        <v>0.5260982651555443</v>
       </c>
       <c r="D99" t="n">
-        <v>1.345983572163952</v>
+        <v>0.0368499823204772</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5802137150008195</v>
+        <v>0.8315601781608999</v>
       </c>
       <c r="C100" t="n">
-        <v>1.124064809513209</v>
+        <v>0.1521830506273595</v>
       </c>
       <c r="D100" t="n">
-        <v>1.152895881851599</v>
+        <v>0.01625677121174056</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6142307217705638</v>
+        <v>0.8455359649336486</v>
       </c>
       <c r="C101" t="n">
-        <v>1.212902965942698</v>
+        <v>0.1425644797416263</v>
       </c>
       <c r="D101" t="n">
-        <v>1.285880261937926</v>
+        <v>0.0118995553247254</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.4015157779777536</v>
+        <v>0.3105036272535412</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4382738728958149</v>
+        <v>0.6271426987677663</v>
       </c>
       <c r="D102" t="n">
-        <v>1.245392352161495</v>
+        <v>0.06235367397869252</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2893394820577941</v>
+        <v>0.7103583244859538</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9408965432633583</v>
+        <v>0.265488787851848</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28341733018798</v>
+        <v>0.02415288766219804</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5450047960911593</v>
+        <v>0.8210117147983387</v>
       </c>
       <c r="C104" t="n">
-        <v>1.126222788934152</v>
+        <v>0.1640214594869139</v>
       </c>
       <c r="D104" t="n">
-        <v>1.264325197716509</v>
+        <v>0.01496682571474741</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.2989935921030917</v>
+        <v>0.3483922833771754</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2775942910907876</v>
+        <v>0.5667656250260558</v>
       </c>
       <c r="D105" t="n">
-        <v>1.230089116251655</v>
+        <v>0.08484209159676866</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08130108559934568</v>
+        <v>0.5869043539142303</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6908440789816925</v>
+        <v>0.363722893824332</v>
       </c>
       <c r="D106" t="n">
-        <v>1.071957972250182</v>
+        <v>0.04937275226143785</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2177827809715853</v>
+        <v>0.6225310586138233</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4754403491491761</v>
+        <v>0.2790917905056375</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6759643311317018</v>
+        <v>0.09837715088053921</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.315387989472033</v>
+        <v>0.02050080165063542</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.020566013265855</v>
+        <v>0.5320201645217382</v>
       </c>
       <c r="D108" t="n">
-        <v>0.187668988288358</v>
+        <v>0.4474790338276265</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2330338941470171</v>
+        <v>0.400866772495306</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534581384569373</v>
+        <v>0.524604064588677</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9616159013418508</v>
+        <v>0.07452916291601676</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.8706555162170742</v>
+        <v>0.1205925164379708</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.005008532781763719</v>
+        <v>0.7584290412583635</v>
       </c>
       <c r="D110" t="n">
-        <v>1.008223081530182</v>
+        <v>0.1209784423036657</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.22764332130392</v>
+        <v>0.03952243763209019</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.6189278068975792</v>
+        <v>0.685455710137331</v>
       </c>
       <c r="D111" t="n">
-        <v>0.560247041153225</v>
+        <v>0.275021852230579</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.172020105545688</v>
+        <v>0.4429959324203733</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6971386723213246</v>
+        <v>0.5100086743750003</v>
       </c>
       <c r="D112" t="n">
-        <v>1.172250689533179</v>
+        <v>0.04699539320462619</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4633588325019065</v>
+        <v>0.7822609260289597</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9052622312137348</v>
+        <v>0.1913202969771128</v>
       </c>
       <c r="D113" t="n">
-        <v>1.157537279450885</v>
+        <v>0.02641877699392736</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8054009095681818</v>
+        <v>0.1261880079765865</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1266200452466162</v>
+        <v>0.6943846072924006</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7797882427546126</v>
+        <v>0.1794273847310131</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.57624269940094</v>
+        <v>0.211242928741269</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04109143539857918</v>
+        <v>0.5534904234937692</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4477026077374047</v>
+        <v>0.2352666477649615</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.6182976604419861</v>
+        <v>0.2171400705223876</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4473273571384571</v>
+        <v>0.7197993192739259</v>
       </c>
       <c r="D116" t="n">
-        <v>1.192151051431558</v>
+        <v>0.06306061020368633</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.4422966110100259</v>
+        <v>0.2954380306855349</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5888358810005005</v>
+        <v>0.6396227380461068</v>
       </c>
       <c r="D117" t="n">
-        <v>1.050778357157149</v>
+        <v>0.06493923126835832</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.7589483130122585</v>
+        <v>0.1643539588167607</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3862607477107165</v>
+        <v>0.780639167072756</v>
       </c>
       <c r="D118" t="n">
-        <v>1.327939554042125</v>
+        <v>0.05500687411048315</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.7512190861180312</v>
+        <v>0.08520079401179628</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.6653246960610684</v>
+        <v>0.7399349650568456</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8814664896930038</v>
+        <v>0.1748642409313579</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.999917336179355</v>
+        <v>0.03964160930186648</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.7751557845532968</v>
+        <v>0.2395001430808432</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.4584957334689579</v>
+        <v>0.7208582476172907</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9001150184174622</v>
+        <v>0.9165696391086012</v>
       </c>
       <c r="C121" t="n">
-        <v>1.390142547018735</v>
+        <v>0.07679709137822373</v>
       </c>
       <c r="D121" t="n">
-        <v>1.286426745377419</v>
+        <v>0.006633269513175027</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4965400929231225</v>
+        <v>0.7798849985176326</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7850337776145668</v>
+        <v>0.1746869399530082</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7597391697902294</v>
+        <v>0.04542806152935949</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.5909215458051489</v>
+        <v>0.2186247505984599</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2539122930651647</v>
+        <v>0.668613603394224</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9011567646158125</v>
+        <v>0.1127616460073164</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3476669718339838</v>
+        <v>0.7445326905864215</v>
       </c>
       <c r="C124" t="n">
-        <v>1.065552674272476</v>
+        <v>0.2416513565498711</v>
       </c>
       <c r="D124" t="n">
-        <v>1.614905804463483</v>
+        <v>0.0138159528637073</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.09298193320747883</v>
+        <v>0.6117098981826149</v>
       </c>
       <c r="C125" t="n">
-        <v>1.049664230906112</v>
+        <v>0.3705319378991354</v>
       </c>
       <c r="D125" t="n">
-        <v>1.514593939614507</v>
+        <v>0.01775816391824978</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3064754264042864</v>
+        <v>0.7047885763828035</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7880357904895394</v>
+        <v>0.2503480836343219</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8934950503615722</v>
+        <v>0.0448633399828748</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1223525062353263</v>
+        <v>0.6121940444477224</v>
       </c>
       <c r="C127" t="n">
-        <v>0.6998962328471041</v>
+        <v>0.3453031239444186</v>
       </c>
       <c r="D127" t="n">
-        <v>1.213117682102115</v>
+        <v>0.04250283160785914</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.8049102521134484</v>
+        <v>0.09608070770850041</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.4174439928640421</v>
+        <v>0.5052154230793346</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2163114283709502</v>
+        <v>0.3987038692121647</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.4160493919329968</v>
+        <v>0.751258072254869</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8044594929541464</v>
+        <v>0.2033866085771695</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7746060339462202</v>
+        <v>0.04535531916796145</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.02013353712256505</v>
+        <v>0.535749336140186</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7428640715631136</v>
+        <v>0.4281387698533154</v>
       </c>
       <c r="D130" t="n">
-        <v>1.330734471275953</v>
+        <v>0.03611189400649832</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01140597682291</v>
+        <v>0.5461752785653911</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7071189575301791</v>
+        <v>0.3952733982433432</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9037683328347794</v>
+        <v>0.0585513231912654</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1174690173863655</v>
+        <v>0.6042391884995517</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7232220110172083</v>
+        <v>0.3354409880354686</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8001598697928143</v>
+        <v>0.06031982346497973</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.292951580798761</v>
+        <v>0.3732776484656147</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6086342846310604</v>
+        <v>0.5822561672211103</v>
       </c>
       <c r="D133" t="n">
-        <v>1.341634817471963</v>
+        <v>0.04446618431327518</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.7914688742311324</v>
+        <v>0.1521189728315925</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2293226828402428</v>
+        <v>0.7589634080745424</v>
       </c>
       <c r="D134" t="n">
-        <v>1.088309567301287</v>
+        <v>0.08891761909386488</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.7706209715037358</v>
+        <v>0.1584622843969878</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1420869204873245</v>
+        <v>0.7049172748836054</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8289630077063987</v>
+        <v>0.1366204407194069</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.841828342286878</v>
+        <v>0.1369468620422115</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2426145620045421</v>
+        <v>0.7973778503932338</v>
       </c>
       <c r="D136" t="n">
-        <v>1.29766891442329</v>
+        <v>0.06567528756455504</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2877152028662198</v>
+        <v>0.7093221804171341</v>
       </c>
       <c r="C137" t="n">
-        <v>1.101579759094827</v>
+        <v>0.2625050043868012</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9560832195783247</v>
+        <v>0.02817281519606457</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3244771298425735</v>
+        <v>0.7394531661087894</v>
       </c>
       <c r="C138" t="n">
-        <v>1.400921875381338</v>
+        <v>0.2538783595723033</v>
       </c>
       <c r="D138" t="n">
-        <v>1.794961937063014</v>
+        <v>0.006668474318907404</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1604498982932614</v>
+        <v>0.643251114361918</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8708452265985986</v>
+        <v>0.3301032995135185</v>
       </c>
       <c r="D139" t="n">
-        <v>1.370763432831587</v>
+        <v>0.02664558612456348</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9040406295976555</v>
+        <v>0.9202369307559327</v>
       </c>
       <c r="C140" t="n">
-        <v>1.492697816532194</v>
+        <v>0.07647251462561061</v>
       </c>
       <c r="D140" t="n">
-        <v>1.871069412155925</v>
+        <v>0.003290554618456574</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.011066642366994</v>
+        <v>0.9364916084411357</v>
       </c>
       <c r="C141" t="n">
-        <v>1.751060464096293</v>
+        <v>0.05960069626155476</v>
       </c>
       <c r="D141" t="n">
-        <v>1.208497049750868</v>
+        <v>0.00390769529730969</v>
       </c>
       <c r="E141" t="n">
         <v>14</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3846593294954874</v>
+        <v>0.7566760925957832</v>
       </c>
       <c r="C142" t="n">
-        <v>1.038569724732762</v>
+        <v>0.2237500744486523</v>
       </c>
       <c r="D142" t="n">
-        <v>1.266846726267154</v>
+        <v>0.01957383295556454</v>
       </c>
       <c r="E142" t="n">
         <v>14</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4614623700041096</v>
+        <v>0.7784232576150576</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9513469796367051</v>
+        <v>0.1874938793557852</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7860551218295837</v>
+        <v>0.03408286302915721</v>
       </c>
       <c r="E143" t="n">
         <v>14</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3313346104151225</v>
+        <v>0.7386604193375383</v>
       </c>
       <c r="C144" t="n">
-        <v>1.223068256829416</v>
+        <v>0.2491280916861092</v>
       </c>
       <c r="D144" t="n">
-        <v>1.483668699533744</v>
+        <v>0.01221148897635268</v>
       </c>
       <c r="E144" t="n">
         <v>14</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.7305759425417295</v>
+        <v>0.8724331821593203</v>
       </c>
       <c r="C145" t="n">
-        <v>1.027980280548116</v>
+        <v>0.1113388982990932</v>
       </c>
       <c r="D145" t="n">
-        <v>1.276736037462733</v>
+        <v>0.01622791954158687</v>
       </c>
       <c r="E145" t="n">
         <v>14</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9861018284469156</v>
+        <v>0.9287668438842848</v>
       </c>
       <c r="C146" t="n">
-        <v>1.306022501183998</v>
+        <v>0.06311965384172448</v>
       </c>
       <c r="D146" t="n">
-        <v>1.149700615982617</v>
+        <v>0.008113502273990715</v>
       </c>
       <c r="E146" t="n">
         <v>14</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.8240113248284291</v>
+        <v>0.883997067625312</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9628535132746467</v>
+        <v>0.08928094188652677</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7083339315975008</v>
+        <v>0.0267219904881612</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2535969167959951</v>
+        <v>0.6812569910046767</v>
       </c>
       <c r="C148" t="n">
-        <v>0.808587895922054</v>
+        <v>0.2747772493971676</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9118547808793733</v>
+        <v>0.04396575959815582</v>
       </c>
       <c r="E148" t="n">
         <v>14</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3490839532067826</v>
+        <v>0.7309344726124788</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8982258461547818</v>
+        <v>0.2335689160259251</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9219714330373063</v>
+        <v>0.03549661136159648</v>
       </c>
       <c r="E149" t="n">
         <v>14</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5110779114102075</v>
+        <v>0.8081590925250839</v>
       </c>
       <c r="C150" t="n">
-        <v>1.116434884644613</v>
+        <v>0.1752066108361907</v>
       </c>
       <c r="D150" t="n">
-        <v>1.202591495971809</v>
+        <v>0.01663429663872508</v>
       </c>
       <c r="E150" t="n">
         <v>14</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01972983486249236</v>
+        <v>0.5302669751337565</v>
       </c>
       <c r="C151" t="n">
-        <v>0.7305079171695699</v>
+        <v>0.4156418949857389</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9621743008023385</v>
+        <v>0.05409112988050417</v>
       </c>
       <c r="E151" t="n">
         <v>14</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1668870869627495</v>
+        <v>0.3488229749678396</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04469464681666047</v>
+        <v>0.4650138823518501</v>
       </c>
       <c r="D152" t="n">
-        <v>0.7282936703939595</v>
+        <v>0.1861631426803102</v>
       </c>
       <c r="E152" t="n">
         <v>14</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.02434074429854549</v>
+        <v>0.5337676066686008</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7287096403140882</v>
+        <v>0.4317789916706117</v>
       </c>
       <c r="D153" t="n">
-        <v>1.409093987226633</v>
+        <v>0.03445340166078759</v>
       </c>
       <c r="E153" t="n">
         <v>14</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.5733416463306793</v>
+        <v>0.1162277978364859</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.4489515845527077</v>
+        <v>0.3195036890843397</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1947489269661349</v>
+        <v>0.5642685130791744</v>
       </c>
       <c r="E154" t="n">
         <v>14</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3421491669751577</v>
+        <v>0.7236752614333334</v>
       </c>
       <c r="C155" t="n">
-        <v>0.836427211356332</v>
+        <v>0.2349752222973661</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8704109052680378</v>
+        <v>0.0413495162693006</v>
       </c>
       <c r="E155" t="n">
         <v>14</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2085580797041859</v>
+        <v>0.6400555191550716</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5647796089790038</v>
+        <v>0.2952619490294948</v>
       </c>
       <c r="D156" t="n">
-        <v>1.008248610130586</v>
+        <v>0.06468253181543336</v>
       </c>
       <c r="E156" t="n">
         <v>14</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5498790974387577</v>
+        <v>0.8318133607264828</v>
       </c>
       <c r="C157" t="n">
-        <v>1.541871055849834</v>
+        <v>0.1644308811583122</v>
       </c>
       <c r="D157" t="n">
-        <v>1.931300059663464</v>
+        <v>0.003755758115205363</v>
       </c>
       <c r="E157" t="n">
         <v>14</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.412652360643317</v>
+        <v>0.7453142608094221</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7669745855348911</v>
+        <v>0.2022891134320138</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6841078443745727</v>
+        <v>0.05239662575856408</v>
       </c>
       <c r="E158" t="n">
         <v>14</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.134493653738001</v>
+        <v>0.6229889929050491</v>
       </c>
       <c r="C159" t="n">
-        <v>0.827786301715145</v>
+        <v>0.3379336658264885</v>
       </c>
       <c r="D159" t="n">
-        <v>1.067641554294376</v>
+        <v>0.03907734126846229</v>
       </c>
       <c r="E159" t="n">
         <v>14</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1560766992975959</v>
+        <v>0.6421050545188561</v>
       </c>
       <c r="C160" t="n">
-        <v>1.023963562752195</v>
+        <v>0.3309890860925633</v>
       </c>
       <c r="D160" t="n">
-        <v>1.160385988902924</v>
+        <v>0.02690585938858036</v>
       </c>
       <c r="E160" t="n">
         <v>14</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.5863886690147138</v>
+        <v>0.2048049576193777</v>
       </c>
       <c r="C161" t="n">
-        <v>0.08348987934960839</v>
+        <v>0.6499585939475717</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8413057861791982</v>
+        <v>0.1452364484330506</v>
       </c>
       <c r="E161" t="n">
         <v>14</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.06960061167444964</v>
+        <v>0.5054133115049199</v>
       </c>
       <c r="C162" t="n">
-        <v>0.8154186085957864</v>
+        <v>0.4507249570995186</v>
       </c>
       <c r="D162" t="n">
-        <v>1.076636473403958</v>
+        <v>0.04386173139556145</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.5311770480746</v>
+        <v>0.01987605946538645</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.7503745017111978</v>
+        <v>0.7865872566390607</v>
       </c>
       <c r="D163" t="n">
-        <v>0.804965262791846</v>
+        <v>0.193536683895553</v>
       </c>
       <c r="E163" t="n">
         <v>14</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6593736947457001</v>
+        <v>0.1474651901852398</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2031702181278572</v>
+        <v>0.6092868614075206</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5778991087635814</v>
+        <v>0.2432479484072395</v>
       </c>
       <c r="E164" t="n">
         <v>14</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.4357796655034281</v>
+        <v>0.7805389145822507</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9965157494165116</v>
+        <v>0.2044708922166035</v>
       </c>
       <c r="D165" t="n">
-        <v>1.685057257972453</v>
+        <v>0.01499019320114568</v>
       </c>
       <c r="E165" t="n">
         <v>14</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.4830551820241982</v>
+        <v>0.8029690177782681</v>
       </c>
       <c r="C166" t="n">
-        <v>1.477496728943317</v>
+        <v>0.186054154275882</v>
       </c>
       <c r="D166" t="n">
-        <v>1.236210196756225</v>
+        <v>0.01097682794585008</v>
       </c>
       <c r="E166" t="n">
         <v>14</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.147843300730425</v>
+        <v>0.643321025428453</v>
       </c>
       <c r="C167" t="n">
-        <v>1.03682744087005</v>
+        <v>0.3407309654825652</v>
       </c>
       <c r="D167" t="n">
-        <v>1.607252700103011</v>
+        <v>0.01594800908898184</v>
       </c>
       <c r="E167" t="n">
         <v>14</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.1902804695169737</v>
+        <v>0.6689036812590227</v>
       </c>
       <c r="C168" t="n">
-        <v>1.037605624948251</v>
+        <v>0.3194613498490941</v>
       </c>
       <c r="D168" t="n">
-        <v>1.973339048231288</v>
+        <v>0.01163496889188321</v>
       </c>
       <c r="E168" t="n">
         <v>14</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3464100321349792</v>
+        <v>0.7480051479019704</v>
       </c>
       <c r="C169" t="n">
-        <v>1.167548113144102</v>
+        <v>0.2435276450233515</v>
       </c>
       <c r="D169" t="n">
-        <v>1.969715679972545</v>
+        <v>0.008467207074678218</v>
       </c>
       <c r="E169" t="n">
         <v>14</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8373265452910732</v>
+        <v>0.8999864860571645</v>
       </c>
       <c r="C170" t="n">
-        <v>1.124035324162117</v>
+        <v>0.08837858431194061</v>
       </c>
       <c r="D170" t="n">
-        <v>1.352424237232192</v>
+        <v>0.01163492963089501</v>
       </c>
       <c r="E170" t="n">
         <v>14</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.02328414622970909</v>
+        <v>0.5706619869907829</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9695321975269824</v>
+        <v>0.410702106937699</v>
       </c>
       <c r="D171" t="n">
-        <v>1.606891748740416</v>
+        <v>0.01863590607151818</v>
       </c>
       <c r="E171" t="n">
         <v>14</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.05336608594819436</v>
+        <v>0.5603020808012453</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5951594513114262</v>
+        <v>0.3654243004893066</v>
       </c>
       <c r="D172" t="n">
-        <v>0.811063473006804</v>
+        <v>0.07427361870944814</v>
       </c>
       <c r="E172" t="n">
         <v>14</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.2078457277034613</v>
+        <v>0.4291953723873945</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7848271009099737</v>
+        <v>0.5473358056617746</v>
       </c>
       <c r="D173" t="n">
-        <v>1.702129017046125</v>
+        <v>0.02346882195083074</v>
       </c>
       <c r="E173" t="n">
         <v>14</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.09661454875695652</v>
+        <v>0.6208940477829648</v>
       </c>
       <c r="C174" t="n">
-        <v>1.221358230339371</v>
+        <v>0.3731595016550572</v>
       </c>
       <c r="D174" t="n">
-        <v>2.342387550900874</v>
+        <v>0.005946450561977953</v>
       </c>
       <c r="E174" t="n">
         <v>14</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1441144448013643</v>
+        <v>0.466217341806162</v>
       </c>
       <c r="C175" t="n">
-        <v>0.764178355666397</v>
+        <v>0.5075782873130786</v>
       </c>
       <c r="D175" t="n">
-        <v>1.634063246913975</v>
+        <v>0.02620437088075927</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.4026990024478363</v>
+        <v>0.2871842484735322</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2016748830068256</v>
+        <v>0.6023791427033937</v>
       </c>
       <c r="D176" t="n">
-        <v>1.009892076675406</v>
+        <v>0.1104366088230742</v>
       </c>
       <c r="E176" t="n">
         <v>14</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1984352199207495</v>
+        <v>0.6578359411256613</v>
       </c>
       <c r="C177" t="n">
-        <v>0.8455596623856909</v>
+        <v>0.3054201028335378</v>
       </c>
       <c r="D177" t="n">
-        <v>1.067194634126828</v>
+        <v>0.0367439560408007</v>
       </c>
       <c r="E177" t="n">
         <v>14</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3949086321764628</v>
+        <v>0.756321508838855</v>
       </c>
       <c r="C178" t="n">
-        <v>1.040367256331132</v>
+        <v>0.2152512784793815</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9063548592280097</v>
+        <v>0.02842721268176358</v>
       </c>
       <c r="E178" t="n">
         <v>14</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.04311719291394978</v>
+        <v>0.5478749380745509</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5335209740683329</v>
+        <v>0.3654852110669058</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7525146347185581</v>
+        <v>0.0866398508585432</v>
       </c>
       <c r="E179" t="n">
         <v>14</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5173047787755496</v>
+        <v>0.8155861234466264</v>
       </c>
       <c r="C180" t="n">
-        <v>1.29349872398212</v>
+        <v>0.1743666492697256</v>
       </c>
       <c r="D180" t="n">
-        <v>1.414426893326499</v>
+        <v>0.01004722728364806</v>
       </c>
       <c r="E180" t="n">
         <v>14</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.09593060953667</v>
+        <v>0.04695568101574938</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.6266503527669922</v>
+        <v>0.7476467870280536</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7596789723102473</v>
+        <v>0.2053975319561972</v>
       </c>
       <c r="E181" t="n">
         <v>14</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.3507419072500295</v>
+        <v>0.3366918369506716</v>
       </c>
       <c r="C182" t="n">
-        <v>0.4670768562944776</v>
+        <v>0.5946413139887602</v>
       </c>
       <c r="D182" t="n">
-        <v>1.123979663168107</v>
+        <v>0.0686668490605684</v>
       </c>
       <c r="E182" t="n">
         <v>14</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.9403572666032045</v>
+        <v>0.07136260187467232</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.4603170135398411</v>
+        <v>0.7095701800023122</v>
       </c>
       <c r="D183" t="n">
-        <v>0.706678429045162</v>
+        <v>0.2190672181230154</v>
       </c>
       <c r="E183" t="n">
         <v>14</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.531727081245212</v>
+        <v>0.221511866094827</v>
       </c>
       <c r="C184" t="n">
-        <v>0.07087332389355971</v>
+        <v>0.6149511351888168</v>
       </c>
       <c r="D184" t="n">
-        <v>0.7547425062373703</v>
+        <v>0.1635369987163562</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3055719346416157</v>
+        <v>0.6908597323088961</v>
       </c>
       <c r="C185" t="n">
-        <v>0.6178624704253455</v>
+        <v>0.2513500415343885</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9927798929892828</v>
+        <v>0.05779022615671532</v>
       </c>
       <c r="E185" t="n">
         <v>14</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.5925321104806858</v>
+        <v>0.8382558285165655</v>
       </c>
       <c r="C186" t="n">
-        <v>1.127069116658726</v>
+        <v>0.1493988575831761</v>
       </c>
       <c r="D186" t="n">
-        <v>1.444359571120706</v>
+        <v>0.01234531390025814</v>
       </c>
       <c r="E186" t="n">
         <v>15</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.2240859796292267</v>
+        <v>0.3967722336936831</v>
       </c>
       <c r="C187" t="n">
-        <v>0.4537325039809392</v>
+        <v>0.5023164454071274</v>
       </c>
       <c r="D187" t="n">
-        <v>0.7751796128469903</v>
+        <v>0.1009113208991892</v>
       </c>
       <c r="E187" t="n">
         <v>15</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.2339851448845889</v>
+        <v>0.399075054750516</v>
       </c>
       <c r="C188" t="n">
-        <v>0.5108443297820404</v>
+        <v>0.5231546546070809</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9517345292096235</v>
+        <v>0.07777029064240308</v>
       </c>
       <c r="E188" t="n">
         <v>15</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.6719014754462376</v>
+        <v>0.1470767653628023</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.210671363345929</v>
+        <v>0.5709538804649781</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4544577275930732</v>
+        <v>0.2819693541722196</v>
       </c>
       <c r="E189" t="n">
         <v>15</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.513222514936349</v>
+        <v>0.2252773830500195</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0592443974568031</v>
+        <v>0.6236906289022562</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8396742047823904</v>
+        <v>0.1510319880477244</v>
       </c>
       <c r="E190" t="n">
         <v>15</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.4033237962368799</v>
+        <v>0.2910703361673614</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2412020429272506</v>
+        <v>0.5900783223641902</v>
       </c>
       <c r="D191" t="n">
-        <v>0.887085630038065</v>
+        <v>0.1188513414684483</v>
       </c>
       <c r="E191" t="n">
         <v>15</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2625514775100544</v>
+        <v>0.689551960541921</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8203493783243889</v>
+        <v>0.2747090063200291</v>
       </c>
       <c r="D192" t="n">
-        <v>1.105923813848953</v>
+        <v>0.03573903313804993</v>
       </c>
       <c r="E192" t="n">
         <v>15</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.6664789884853559</v>
+        <v>0.1977359518281719</v>
       </c>
       <c r="C193" t="n">
-        <v>0.4415470014153815</v>
+        <v>0.7519167600356161</v>
       </c>
       <c r="D193" t="n">
-        <v>1.366914430256251</v>
+        <v>0.05034728813621196</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.4372750740109308</v>
+        <v>0.2713983101038333</v>
       </c>
       <c r="C194" t="n">
-        <v>0.1917373196286096</v>
+        <v>0.6145682065310872</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9808934973330634</v>
+        <v>0.1140334833650793</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.9591338344979801</v>
+        <v>0.01147275065185843</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.186515296715987</v>
+        <v>0.0521085205711477</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.355779833656648</v>
+        <v>0.9364187287769938</v>
       </c>
       <c r="E195" t="n">
         <v>15</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.842113543500038</v>
+        <v>0.0109124408158384</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.05315988134665</v>
+        <v>0.3615565522269594</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1775619449304247</v>
+        <v>0.627531006957202</v>
       </c>
       <c r="E196" t="n">
         <v>15</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.05475570586697698</v>
+        <v>0.575812843481244</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7180053715198458</v>
+        <v>0.3822275144426501</v>
       </c>
       <c r="D197" t="n">
-        <v>1.20345343133895</v>
+        <v>0.04195964207610585</v>
       </c>
       <c r="E197" t="n">
         <v>15</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.061852066122274</v>
+        <v>0.04598088791579204</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.7101676899641145</v>
+        <v>0.7119070729887838</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6514980311187981</v>
+        <v>0.2421120390954244</v>
       </c>
       <c r="E198" t="n">
         <v>15</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.4043986078364026</v>
+        <v>0.1304070223610091</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.4613188221513038</v>
+        <v>0.267464093753063</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.3055125525960494</v>
+        <v>0.6021288838859276</v>
       </c>
       <c r="E199" t="n">
         <v>15</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5446094263200325</v>
+        <v>0.8259294851703308</v>
       </c>
       <c r="C200" t="n">
-        <v>1.259494356489549</v>
+        <v>0.1653825164242726</v>
       </c>
       <c r="D200" t="n">
-        <v>1.58416871578499</v>
+        <v>0.008687998405396469</v>
       </c>
       <c r="E200" t="n">
         <v>15</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.0352193187606</v>
+        <v>0.09684516192956961</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.083640823908814</v>
+        <v>0.7168778929748028</v>
       </c>
       <c r="D201" t="n">
-        <v>0.7252472657703988</v>
+        <v>0.1862769450956277</v>
       </c>
       <c r="E201" t="n">
         <v>15</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.2299062182293636</v>
+        <v>0.3859942712654126</v>
       </c>
       <c r="C202" t="n">
-        <v>0.3160490468843253</v>
+        <v>0.5246898715992588</v>
       </c>
       <c r="D202" t="n">
-        <v>1.123455485841667</v>
+        <v>0.08931585713532848</v>
       </c>
       <c r="E202" t="n">
         <v>15</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.721180959859542</v>
+        <v>0.1270668979405426</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.287564181091204</v>
+        <v>0.5212478348456325</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2879741543021976</v>
+        <v>0.3516852672138248</v>
       </c>
       <c r="E203" t="n">
         <v>15</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.015399704013991</v>
+        <v>0.04798784121003858</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.725374712056583</v>
+        <v>0.6266426623480339</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4364285665634851</v>
+        <v>0.3253694964419274</v>
       </c>
       <c r="E204" t="n">
         <v>15</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01288654953233559</v>
+        <v>0.5544239421655274</v>
       </c>
       <c r="C205" t="n">
-        <v>0.7444491415700956</v>
+        <v>0.4082795113890493</v>
       </c>
       <c r="D205" t="n">
-        <v>1.288742094692772</v>
+        <v>0.03729654644542307</v>
       </c>
       <c r="E205" t="n">
         <v>15</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.767095289931309</v>
+        <v>0.1460843282559408</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.04068309137510617</v>
+        <v>0.6658687253209027</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7014017788649267</v>
+        <v>0.1880469464231566</v>
       </c>
       <c r="E206" t="n">
         <v>15</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.7322184146787305</v>
+        <v>0.1599738572631714</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1142197655196018</v>
+        <v>0.763138951228284</v>
       </c>
       <c r="D207" t="n">
-        <v>1.32025719909101</v>
+        <v>0.07688719150854464</v>
       </c>
       <c r="E207" t="n">
         <v>15</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.336933902715732</v>
+        <v>0.01367573302266565</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.206092878349798</v>
+        <v>0.3601819795139051</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1773252912606085</v>
+        <v>0.6261422874634291</v>
       </c>
       <c r="E208" t="n">
         <v>15</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.04193608841890351</v>
+        <v>0.5764652550081071</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8453599964506342</v>
+        <v>0.3957529423372213</v>
       </c>
       <c r="D209" t="n">
-        <v>1.409433617299633</v>
+        <v>0.02778180265467167</v>
       </c>
       <c r="E209" t="n">
         <v>15</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1324040041224817</v>
+        <v>0.298304937711005</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.1497606371011866</v>
+        <v>0.4548939576373766</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6337232717962775</v>
+        <v>0.2468011046516186</v>
       </c>
       <c r="E210" t="n">
         <v>15</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.394788074525199</v>
+        <v>0.02887402799998329</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.7869532617675983</v>
+        <v>0.3130279096726807</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.2769441664547616</v>
+        <v>0.6580980623273358</v>
       </c>
       <c r="E211" t="n">
         <v>15</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.7249791892513042</v>
+        <v>0.0884720630474401</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.5752071643704735</v>
+        <v>0.6031512233557421</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4655525204530802</v>
+        <v>0.3083767135968178</v>
       </c>
       <c r="E212" t="n">
         <v>15</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.08419558101396829</v>
+        <v>0.5998966461743567</v>
       </c>
       <c r="C213" t="n">
-        <v>0.8654744402139958</v>
+        <v>0.370542962181504</v>
       </c>
       <c r="D213" t="n">
-        <v>1.30211282615199</v>
+        <v>0.02956039164413924</v>
       </c>
       <c r="E213" t="n">
         <v>15</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7290156705339075</v>
+        <v>0.8704350074613457</v>
       </c>
       <c r="C214" t="n">
-        <v>1.092199288803565</v>
+        <v>0.1101870010647245</v>
       </c>
       <c r="D214" t="n">
-        <v>0.8838688594361839</v>
+        <v>0.01937799147392985</v>
       </c>
       <c r="E214" t="n">
         <v>15</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.2309961186754452</v>
+        <v>0.6780658441146825</v>
       </c>
       <c r="C215" t="n">
-        <v>0.8251487440289313</v>
+        <v>0.2932416385905242</v>
       </c>
       <c r="D215" t="n">
-        <v>1.365518119546642</v>
+        <v>0.02869251729479327</v>
       </c>
       <c r="E215" t="n">
         <v>15</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.7181862532243781</v>
+        <v>0.122072111329835</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.2886285024531272</v>
+        <v>0.6922591744893398</v>
       </c>
       <c r="D216" t="n">
-        <v>0.8137331544482505</v>
+        <v>0.1856687141808249</v>
       </c>
       <c r="E216" t="n">
         <v>15</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.05878066059748788</v>
+        <v>0.5883437680086697</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9212940347604732</v>
+        <v>0.3873811840370118</v>
       </c>
       <c r="D217" t="n">
-        <v>1.416628366854446</v>
+        <v>0.02427504795431852</v>
       </c>
       <c r="E217" t="n">
         <v>15</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1584262515492543</v>
+        <v>0.6158021033431295</v>
       </c>
       <c r="C218" t="n">
-        <v>0.5633642128518321</v>
+        <v>0.3201616522132774</v>
       </c>
       <c r="D218" t="n">
-        <v>1.030628062039021</v>
+        <v>0.06403624444359314</v>
       </c>
       <c r="E218" t="n">
         <v>15</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.2250384672709447</v>
+        <v>0.6593897897500322</v>
       </c>
       <c r="C219" t="n">
-        <v>0.7204120921102319</v>
+        <v>0.2834691613638978</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7996078666194462</v>
+        <v>0.05714104888607009</v>
       </c>
       <c r="E219" t="n">
         <v>15</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.394396244164927</v>
+        <v>0.006151029047317473</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.522931561276357</v>
+        <v>0.1962298974300063</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.6038744274462504</v>
+        <v>0.7976190735226766</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.17770081628753</v>
+        <v>0.01626107662239213</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.174833704325755</v>
+        <v>0.2862572057682035</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.3464124503687247</v>
+        <v>0.6974817176094043</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.026998574350689</v>
+        <v>0.02726612731441694</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.038164515920093</v>
+        <v>0.3675905166051862</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1476795961322142</v>
+        <v>0.6051433560803966</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.717303177770195</v>
+        <v>0.003374092710029656</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.778722990315392</v>
+        <v>0.267185479364092</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.4043318898609203</v>
+        <v>0.7294404279258786</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.4109814805834486</v>
+        <v>0.04392869058819329</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.8328621769833031</v>
+        <v>0.057184747094402</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.318839548828756</v>
+        <v>0.8988865623174049</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-1.611606908618417</v>
+        <v>0.003344676177144962</v>
       </c>
       <c r="C225" t="n">
-        <v>-1.516584772403851</v>
+        <v>0.07550130811206371</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.156179126311962</v>
+        <v>0.9211540157107913</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.047471357058218</v>
+        <v>0.01372574238857524</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.162861837468361</v>
+        <v>0.1384140817731759</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.8078840051649296</v>
+        <v>0.8478601758382486</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.7042384568013529</v>
+        <v>0.1098089396457918</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.4057678026118676</v>
+        <v>0.556787255997792</v>
       </c>
       <c r="D227" t="n">
-        <v>0.3740225951453267</v>
+        <v>0.3334038043564161</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.357245308863402</v>
+        <v>0.008117209658939251</v>
       </c>
       <c r="C228" t="n">
-        <v>-1.380047215930096</v>
+        <v>0.2087599671642701</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.5636587736888077</v>
+        <v>0.7831228231767908</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.606355217839312</v>
+        <v>0.003935917519475265</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.558546635554668</v>
+        <v>0.1634157392474545</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.7175933240699452</v>
+        <v>0.8326483432330707</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-2.196237820196988</v>
+        <v>0.0006893272554697807</v>
       </c>
       <c r="C230" t="n">
-        <v>-1.957413880419358</v>
+        <v>0.05959268459923797</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.284677069742834</v>
+        <v>0.9397179881452923</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.387580087993943</v>
+        <v>0.008654448234782378</v>
       </c>
       <c r="C231" t="n">
-        <v>-1.302020102705645</v>
+        <v>0.1966893130670939</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.6011675821579205</v>
+        <v>0.794656238698124</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.081698237447445</v>
+        <v>0.02406139383442215</v>
       </c>
       <c r="C232" t="n">
-        <v>-1.013783775212451</v>
+        <v>0.3032876188599923</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.2991175433870767</v>
+        <v>0.6726509873055854</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.094732532168355</v>
+        <v>0.0477974053920802</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.6521645650047585</v>
+        <v>0.4235159886016076</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.01507699958803976</v>
+        <v>0.5286866060063122</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.139452785320789</v>
+        <v>0.01042698589818013</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.280096333753056</v>
+        <v>0.1307654812493089</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.8419717463612744</v>
+        <v>0.858807532852511</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.661721988199635</v>
+        <v>0.00635146632306392</v>
       </c>
       <c r="C235" t="n">
-        <v>-1.382487347257927</v>
+        <v>0.3121487158179723</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.2921947516099197</v>
+        <v>0.6814998178589634</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.307511773519839</v>
+        <v>0.01406452789380256</v>
       </c>
       <c r="C236" t="n">
-        <v>-1.306829956873022</v>
+        <v>0.4207703544118128</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.04739091880434665</v>
+        <v>0.5651651176943847</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.7857175602853954</v>
+        <v>0.01878619064099295</v>
       </c>
       <c r="C237" t="n">
-        <v>-1.059145506802784</v>
+        <v>0.06150802116613005</v>
       </c>
       <c r="D237" t="n">
-        <v>-1.266946705446977</v>
+        <v>0.9197057881928768</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.769680631852712</v>
+        <v>0.00981769861129647</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.12488209264203</v>
+        <v>0.2110606089295355</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.5565310457891359</v>
+        <v>0.7791216924591681</v>
       </c>
       <c r="E238" t="n">
         <v>17</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.313088626533609</v>
+        <v>0.5027693558911995</v>
       </c>
       <c r="C239" t="n">
-        <v>0.08479724525438748</v>
+        <v>0.1281195942308681</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.6608267009813533</v>
+        <v>0.3691110498779325</v>
       </c>
       <c r="E239" t="n">
         <v>17</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.540057110046821</v>
+        <v>0.2156793530702988</v>
       </c>
       <c r="C240" t="n">
-        <v>0.04803839850540648</v>
+        <v>0.6152699940846461</v>
       </c>
       <c r="D240" t="n">
-        <v>0.7440922906825091</v>
+        <v>0.1690506528450554</v>
       </c>
       <c r="E240" t="n">
         <v>17</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.310556296995064</v>
+        <v>0.03251662415639846</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.6725849269713162</v>
+        <v>0.695942883595399</v>
       </c>
       <c r="D241" t="n">
-        <v>0.5736796801245487</v>
+        <v>0.2715404922482026</v>
       </c>
       <c r="E241" t="n">
         <v>17</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.428048876246028</v>
+        <v>0.01323482080856149</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.10552348788787</v>
+        <v>0.2654981506521448</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.4023537434794735</v>
+        <v>0.7212670285392934</v>
       </c>
       <c r="E242" t="n">
         <v>17</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.9675226560223149</v>
+        <v>0.02683124427947114</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.08239746352057</v>
+        <v>0.3057645040436671</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.2876420914887563</v>
+        <v>0.6674042516768618</v>
       </c>
       <c r="E243" t="n">
         <v>17</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-1.683051601150244</v>
+        <v>0.01248562017428546</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.9948109944239345</v>
+        <v>0.6406765912677798</v>
       </c>
       <c r="D244" t="n">
-        <v>0.4078106178706304</v>
+        <v>0.3468377885579347</v>
       </c>
       <c r="E244" t="n">
         <v>17</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-2.40031659717808</v>
+        <v>0.0004192843016485646</v>
       </c>
       <c r="C245" t="n">
-        <v>-2.297989910503793</v>
+        <v>0.1421951449787242</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.8021298202535621</v>
+        <v>0.8573855707196273</v>
       </c>
       <c r="E245" t="n">
         <v>17</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.507199300789897</v>
+        <v>0.01292439729877816</v>
       </c>
       <c r="C246" t="n">
-        <v>-1.107521276035135</v>
+        <v>0.3875316865639848</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1193767541187827</v>
+        <v>0.599543916137237</v>
       </c>
       <c r="E246" t="n">
         <v>17</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.52288863323685</v>
+        <v>0.02024842377667301</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.8109330988138677</v>
+        <v>0.6934965993871883</v>
       </c>
       <c r="D247" t="n">
-        <v>0.5443010161264323</v>
+        <v>0.2862549768361388</v>
       </c>
       <c r="E247" t="n">
         <v>17</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.083849708157662</v>
+        <v>0.05126486804239274</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.5809082530168066</v>
+        <v>0.6686716934963559</v>
       </c>
       <c r="D248" t="n">
-        <v>0.5419068005715457</v>
+        <v>0.2800634384612512</v>
       </c>
       <c r="E248" t="n">
         <v>17</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.922146234128153</v>
+        <v>0.0008611901618520305</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.009836485591483</v>
+        <v>0.07530374143516309</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.158649938070745</v>
+        <v>0.923835068402985</v>
       </c>
       <c r="E249" t="n">
         <v>17</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.886232142798822</v>
+        <v>0.002399512577375912</v>
       </c>
       <c r="C250" t="n">
-        <v>-1.712990860121158</v>
+        <v>0.2107245181933591</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.5616105323652152</v>
+        <v>0.7868759692292648</v>
       </c>
       <c r="E250" t="n">
         <v>17</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.202587398273824</v>
+        <v>0.03241251780488326</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.800558437511091</v>
+        <v>0.5186374261973224</v>
       </c>
       <c r="D251" t="n">
-        <v>0.1729404522731739</v>
+        <v>0.4489500559977941</v>
       </c>
       <c r="E251" t="n">
         <v>17</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.534097346057</v>
+        <v>0.005115752971006457</v>
       </c>
       <c r="C252" t="n">
-        <v>-1.521880928086125</v>
+        <v>0.2055607506815479</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.5755143795499651</v>
+        <v>0.7893234963474458</v>
       </c>
       <c r="E252" t="n">
         <v>17</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.35337398570643</v>
+        <v>0.01403300360596608</v>
       </c>
       <c r="C253" t="n">
-        <v>-1.143481037806984</v>
+        <v>0.3220530360543678</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.2632504104564435</v>
+        <v>0.663913960339666</v>
       </c>
       <c r="E253" t="n">
         <v>17</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.303026748882222</v>
+        <v>0.0004846037523147009</v>
       </c>
       <c r="C254" t="n">
-        <v>-2.158010172171592</v>
+        <v>0.1026746142146122</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.9881559712542229</v>
+        <v>0.8968407820330727</v>
       </c>
       <c r="E254" t="n">
         <v>17</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.171970545329561</v>
+        <v>0.02268690261929034</v>
       </c>
       <c r="C255" t="n">
-        <v>-1.002876319333131</v>
+        <v>0.3441890014724175</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.2056318314473276</v>
+        <v>0.6331240959082922</v>
       </c>
       <c r="E255" t="n">
         <v>17</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.781499899355826</v>
+        <v>0.003662554951666061</v>
       </c>
       <c r="C256" t="n">
-        <v>-1.585194442825985</v>
+        <v>0.2555248305378341</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.4345603550769612</v>
+        <v>0.7408126145104997</v>
       </c>
       <c r="E256" t="n">
         <v>17</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.69058607265966</v>
+        <v>0.008053286729312211</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.282564545048464</v>
+        <v>0.4738383535101918</v>
       </c>
       <c r="D257" t="n">
-        <v>0.05495602892759854</v>
+        <v>0.5181083597604963</v>
       </c>
       <c r="E257" t="n">
         <v>17</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.137552704225119</v>
+        <v>0.03820449475067114</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.7478483239578164</v>
+        <v>0.4944215661536374</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1284475127456159</v>
+        <v>0.4673739390956915</v>
       </c>
       <c r="E258" t="n">
         <v>17</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.137953671481231</v>
+        <v>0.02212626986983642</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.137822883962874</v>
+        <v>0.4260353838537936</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.0279522303272659</v>
+        <v>0.5518383462763696</v>
       </c>
       <c r="E259" t="n">
         <v>17</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.273841484566962</v>
+        <v>0.01811239127026763</v>
       </c>
       <c r="C260" t="n">
-        <v>-1.080413718243838</v>
+        <v>0.3776821322317823</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1355587308096136</v>
+        <v>0.6042054764979503</v>
       </c>
       <c r="E260" t="n">
         <v>17</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.6770874384690768</v>
+        <v>0.06620861381831079</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.6814274062423689</v>
+        <v>0.2634151600168391</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.368879108805608</v>
+        <v>0.67037622616485</v>
       </c>
       <c r="E261" t="n">
         <v>17</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.17617169921957</v>
+        <v>0.002714537108840086</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.560847884699205</v>
+        <v>0.4201942629585911</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.05958713274406358</v>
+        <v>0.5770911999325686</v>
       </c>
       <c r="E262" t="n">
         <v>17</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.173753411106749</v>
+        <v>0.01289473171126177</v>
       </c>
       <c r="C263" t="n">
-        <v>-1.209387285755716</v>
+        <v>0.1571329803830019</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.7323254442880869</v>
+        <v>0.8299722879057362</v>
       </c>
       <c r="E263" t="n">
         <v>17</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-2.395426594961411</v>
+        <v>0.001109196697682523</v>
       </c>
       <c r="C264" t="n">
-        <v>-1.862039326838817</v>
+        <v>0.2576671083303758</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.4306853003568352</v>
+        <v>0.7412236949719417</v>
       </c>
       <c r="E264" t="n">
         <v>18</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.9797167762816952</v>
+        <v>0.04458581271011481</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.7689275679882339</v>
+        <v>0.3967641389386966</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.07029304638926015</v>
+        <v>0.5586500483511884</v>
       </c>
       <c r="E265" t="n">
         <v>18</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.7013123017565772</v>
+        <v>0.1030555731845257</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.4500904971596551</v>
+        <v>0.4462082893935087</v>
       </c>
       <c r="D266" t="n">
-        <v>0.09648504782301592</v>
+        <v>0.4507361374219653</v>
       </c>
       <c r="E266" t="n">
         <v>18</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2186429311883171</v>
+        <v>0.39735967469907</v>
       </c>
       <c r="C267" t="n">
-        <v>0.4325125100854113</v>
+        <v>0.4894822971643924</v>
       </c>
       <c r="D267" t="n">
-        <v>0.6893316611956306</v>
+        <v>0.1131580281365377</v>
       </c>
       <c r="E267" t="n">
         <v>18</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.174915766292973</v>
+        <v>0.3693891635534906</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1503979552993489</v>
+        <v>0.4282008773662649</v>
       </c>
       <c r="D268" t="n">
-        <v>0.4668468730451492</v>
+        <v>0.2024099590802444</v>
       </c>
       <c r="E268" t="n">
         <v>18</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.388388204882308</v>
+        <v>0.2969100320494534</v>
       </c>
       <c r="C269" t="n">
-        <v>0.235866290432023</v>
+        <v>0.5600201483613617</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7175563435999164</v>
+        <v>0.1430698195891849</v>
       </c>
       <c r="E269" t="n">
         <v>18</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.6560743553156851</v>
+        <v>0.1009467421551765</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.5102826989932279</v>
+        <v>0.5004096356006554</v>
       </c>
       <c r="D270" t="n">
-        <v>0.2341307264576853</v>
+        <v>0.3986436222441679</v>
       </c>
       <c r="E270" t="n">
         <v>18</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-1.229024266630777</v>
+        <v>0.01238133026387275</v>
       </c>
       <c r="C271" t="n">
-        <v>-1.325624722718848</v>
+        <v>0.2805708817901376</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.3632888280071784</v>
+        <v>0.7070477879459894</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0.2110068800879747</v>
+        <v>0.6547709360238397</v>
       </c>
       <c r="C272" t="n">
-        <v>0.718713744434277</v>
+        <v>0.2944610978988468</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9403737920282464</v>
+        <v>0.05076796607731345</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.6053485614992167</v>
+        <v>0.1153448090410896</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.4441966060855744</v>
+        <v>0.4186005020606653</v>
       </c>
       <c r="D273" t="n">
-        <v>0.05317956502278043</v>
+        <v>0.4660546888982453</v>
       </c>
       <c r="E273" t="n">
         <v>18</v>
@@ -5838,13 +5838,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1395487943898917</v>
+        <v>0.6239281515378993</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7436557959591941</v>
+        <v>0.3368672010390074</v>
       </c>
       <c r="D274" t="n">
-        <v>1.206828081207796</v>
+        <v>0.03920464742309333</v>
       </c>
       <c r="E274" t="n">
         <v>18</v>
@@ -5858,13 +5858,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.1963396490611484</v>
+        <v>0.3962105001587984</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3248112743186145</v>
+        <v>0.4836808054008637</v>
       </c>
       <c r="D275" t="n">
-        <v>0.7786622644128653</v>
+        <v>0.1201086944403381</v>
       </c>
       <c r="E275" t="n">
         <v>18</v>
@@ -5878,13 +5878,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.3624859729980341</v>
+        <v>0.2417487601183189</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.1032068753456823</v>
+        <v>0.4016966573242856</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1263787674912675</v>
+        <v>0.3565545825573956</v>
       </c>
       <c r="E276" t="n">
         <v>18</v>
@@ -5898,13 +5898,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.263893544033668</v>
+        <v>0.02861256468234533</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.8284312596483883</v>
+        <v>0.411585952897034</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.05562301275690396</v>
+        <v>0.5598014824206206</v>
       </c>
       <c r="E277" t="n">
         <v>18</v>
@@ -5918,13 +5918,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1076892046270888</v>
+        <v>0.5695563330966742</v>
       </c>
       <c r="C278" t="n">
-        <v>0.4544302265956137</v>
+        <v>0.3324267844197074</v>
       </c>
       <c r="D278" t="n">
-        <v>0.7533496217270892</v>
+        <v>0.09801688248361852</v>
       </c>
       <c r="E278" t="n">
         <v>18</v>
@@ -5938,13 +5938,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.670510034439975</v>
+        <v>0.001608838063890694</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.803366619019334</v>
+        <v>0.06755196283700986</v>
       </c>
       <c r="D279" t="n">
-        <v>-1.216991497038855</v>
+        <v>0.9308391990990994</v>
       </c>
       <c r="E279" t="n">
         <v>18</v>
@@ -5958,13 +5958,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.2955967332582685</v>
+        <v>0.2916962043581697</v>
       </c>
       <c r="C280" t="n">
-        <v>0.01823960325203622</v>
+        <v>0.4854254867722293</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5301760134436575</v>
+        <v>0.2228783088696009</v>
       </c>
       <c r="E280" t="n">
         <v>18</v>
@@ -5978,13 +5978,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5551907221994878</v>
+        <v>0.1554851196725577</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.2904676802121084</v>
+        <v>0.3741470150792112</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.04199959959041899</v>
+        <v>0.4703678652482313</v>
       </c>
       <c r="E281" t="n">
         <v>18</v>
@@ -5998,13 +5998,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.3283762608822838</v>
+        <v>0.3490943964878573</v>
       </c>
       <c r="C282" t="n">
-        <v>0.535431348961632</v>
+        <v>0.5548267382888874</v>
       </c>
       <c r="D282" t="n">
-        <v>0.7566485393572646</v>
+        <v>0.09607886522325543</v>
       </c>
       <c r="E282" t="n">
         <v>18</v>
@@ -6018,13 +6018,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.5146948997058343</v>
+        <v>0.2296474944622917</v>
       </c>
       <c r="C283" t="n">
-        <v>0.08862476598197055</v>
+        <v>0.6088481515215315</v>
       </c>
       <c r="D283" t="n">
-        <v>0.7516964551321548</v>
+        <v>0.1615043540161768</v>
       </c>
       <c r="E283" t="n">
         <v>18</v>
@@ -6038,13 +6038,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.4500025469300692</v>
+        <v>0.2563106989357102</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1006522642259799</v>
+        <v>0.5423600481516501</v>
       </c>
       <c r="D284" t="n">
-        <v>0.5367561011912654</v>
+        <v>0.2013292529126397</v>
       </c>
       <c r="E284" t="n">
         <v>18</v>
@@ -6058,13 +6058,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-2.699873026037498</v>
+        <v>0.0004852985510505842</v>
       </c>
       <c r="C285" t="n">
-        <v>-2.280083289524873</v>
+        <v>0.3032417913568631</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.3175403101918095</v>
+        <v>0.6962729100920864</v>
       </c>
       <c r="E285" t="n">
         <v>18</v>
@@ -6078,13 +6078,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.7211504064008989</v>
+        <v>0.06256783983506398</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.6965472908482351</v>
+        <v>0.2875093175053187</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.30831317724563</v>
+        <v>0.6499228426596171</v>
       </c>
       <c r="E286" t="n">
         <v>18</v>
@@ -6098,13 +6098,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.914410430195876</v>
+        <v>0.02960365453246214</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.8967046051622471</v>
+        <v>0.135226274939754</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.8206526033983226</v>
+        <v>0.835170070527784</v>
       </c>
       <c r="E287" t="n">
         <v>18</v>
@@ -6118,13 +6118,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-1.627705920420599</v>
+        <v>0.005314189967535958</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.492199587772694</v>
+        <v>0.2682924684130051</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.4001637280140715</v>
+        <v>0.7263933416194588</v>
       </c>
       <c r="E288" t="n">
         <v>18</v>
@@ -6138,13 +6138,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.768458863586365</v>
+        <v>0.00155387480506866</v>
       </c>
       <c r="C289" t="n">
-        <v>-1.910344025380516</v>
+        <v>0.1151161013376661</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.923090393674862</v>
+        <v>0.8833300238572652</v>
       </c>
       <c r="E289" t="n">
         <v>18</v>
@@ -6158,13 +6158,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.255764149633539</v>
+        <v>0.03079865386643964</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.7977589529398923</v>
+        <v>0.353846204653071</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1803860127914947</v>
+        <v>0.6153551414804895</v>
       </c>
       <c r="E290" t="n">
         <v>18</v>
@@ -6178,13 +6178,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.5208391095846889</v>
+        <v>0.1207095914365435</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.4514719195445505</v>
+        <v>0.2902440307454311</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.265609165255775</v>
+        <v>0.589046377818025</v>
       </c>
       <c r="E291" t="n">
         <v>18</v>
@@ -6198,13 +6198,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-1.439974816711346</v>
+        <v>0.009500282413097291</v>
       </c>
       <c r="C292" t="n">
-        <v>-1.235264250921309</v>
+        <v>0.2110499300194522</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.5562949209118317</v>
+        <v>0.7794497875674508</v>
       </c>
       <c r="E292" t="n">
         <v>18</v>
